--- a/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Identity.xlsx
+++ b/MillenniumHistory/x64/GameStaticReleaseWindows/Resource/AncientBooks/Identity.xlsx
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="1"/>
